--- a/format/medidasDeProteccion/documents/GeneratedFile.xlsx
+++ b/format/medidasDeProteccion/documents/GeneratedFile.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
-  <si>
-    <t>Periodo Correspondiente: 12-2024</t>
-  </si>
-  <si>
-    <t>Consultado: 06-12-2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+  <si>
+    <t>Periodo Correspondiente: 2-12-2024</t>
+  </si>
+  <si>
+    <t>Consultado: 11-12-2024</t>
   </si>
   <si>
     <t>Información Obtenida del Sistema Integral de Registro Estadístico (SIRE)</t>
@@ -80,6 +80,9 @@
     <t>Ampliación</t>
   </si>
   <si>
+    <t>Coorporación Policial</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
@@ -116,17 +119,17 @@
     <t>No</t>
   </si>
   <si>
-    <t>Prueba Prueba Prueba</t>
-  </si>
-  <si>
-    <t>1003202400051</t>
-  </si>
-  <si>
-    <t>Homicidio doloso</t>
+    <t>Javier Andres Bucio García</t>
+  </si>
+  <si>
+    <t>1007202445929</t>
+  </si>
+  <si>
+    <t>Amenazas</t>
   </si>
   <si>
     <t xml:space="preserve">
-Juan Pérez Maldonado</t>
+IVAN MORA ROJAS</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -134,7 +137,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-21</t>
+49</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -142,90 +145,53 @@
   </si>
   <si>
     <t xml:space="preserve">
-Baja California Sur</t>
+Michoacán de Ocampo</t>
   </si>
   <si>
     <t xml:space="preserve">
-Comondú</t>
+Yurécuaro</t>
   </si>
   <si>
     <t xml:space="preserve">
-Prohibición de acercarse o comunicarse con la víctima u ofendido
-Vigilancia en el domicilio de la víctima u ofendido</t>
-  </si>
-  <si>
-    <t>2024-12-06 13:35:53</t>
-  </si>
-  <si>
-    <t>2024-12-05 13:34:00</t>
-  </si>
-  <si>
-    <t>2024-12-06 13:42:00</t>
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Vigilancia en el domicilio de la víctima u ofendido
+Protección policial de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo
+Traslado de la víctima u ofendido a refugios o albergues temporales, así como de sus descendientes
+El reingreso de la víctima u ofendido a su domicilio, una vez que se salvaguarde su seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-12-10 20:31:18</t>
+  </si>
+  <si>
+    <t>2024-12-02 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-02 13:00:00</t>
+  </si>
+  <si>
+    <t>Brenda Lisset Jaimes Arroyo</t>
+  </si>
+  <si>
+    <t>1003202445885</t>
+  </si>
+  <si>
+    <t>Lesiones en razón de parentesco o relación</t>
   </si>
   <si>
     <t xml:space="preserve">
-Juan Pérez Arriaga</t>
+GABRIELA MORENO HERNANDEZ</t>
   </si>
   <si>
     <t xml:space="preserve">
-Baja California</t>
+Femenino</t>
   </si>
   <si>
     <t xml:space="preserve">
-Ensenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Vigilancia en el domicilio de la víctima u ofendido
-Protección policial de la víctima u ofendido</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2024-12-05 12:23:09</t>
-  </si>
-  <si>
-    <t>2024-12-05 12:03:00</t>
-  </si>
-  <si>
-    <t>2025-01-25 07:03:00</t>
-  </si>
-  <si>
-    <t>Homicidio en razon de la preferencia sexual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Carlos Vanegas Campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
-Vigilancia en el domicilio de la víctima u ofendido</t>
-  </si>
-  <si>
-    <t>2024-12-05 10:32:48</t>
-  </si>
-  <si>
-    <t>2024-12-04 10:31:00</t>
-  </si>
-  <si>
-    <t>2025-01-10 16:31:00</t>
-  </si>
-  <si>
-    <t>Lesiones culposas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Juan Chiquito Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-39</t>
+31</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -233,17 +199,50 @@
   </si>
   <si>
     <t xml:space="preserve">
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Vigilancia en el domicilio de la víctima u ofendido
 Protección policial de la víctima u ofendido
 Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
   </si>
   <si>
-    <t>2024-12-02 14:01:57</t>
-  </si>
-  <si>
-    <t>2024-12-01 14:01:00</t>
-  </si>
-  <si>
-    <t>2024-12-31 14:01:00</t>
+    <t>2024-12-09 15:38:12</t>
+  </si>
+  <si>
+    <t>2024-12-02 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-01 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446007</t>
+  </si>
+  <si>
+    <t>Violencia familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MERITH LILIANA FLORES PARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+37</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:34:49</t>
+  </si>
+  <si>
+    <t>1003202446054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PATRICIA GONZALEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:32:18</t>
   </si>
 </sst>
 </file>
@@ -364,6 +363,27 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="152f4a"/>
+      </right>
+      <top style="thin">
+        <color rgb="152f4a"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="152f4a"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="152f4a"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="152f4a"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -433,6 +453,11 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="152f4a"/>
       </left>
@@ -452,32 +477,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="152f4a"/>
-      </right>
-      <top style="thin">
-        <color rgb="152f4a"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="152f4a"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="152f4a"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="152f4a"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <right style="thin">
@@ -513,40 +512,58 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -555,37 +572,19 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -631,7 +630,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -982,7 +981,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AC14" sqref="AC14"/>
@@ -1019,133 +1018,138 @@
     <col min="27" max="27" width="6.75" customWidth="true" style="0"/>
     <col min="28" max="28" width="6.75" customWidth="true" style="0"/>
     <col min="29" max="29" width="17.85" customWidth="true" style="0"/>
+    <col min="30" max="30" width="27" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="20"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="21"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="7"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="22"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="22"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="23"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1154,31 +1158,32 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="23"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -1187,63 +1192,65 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="23"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="22"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="23"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:30">
+      <c r="A8" s="18"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -1251,101 +1258,105 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="25"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="9"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:30">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="12" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="AD9" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:30">
+      <c r="A10" s="12"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1358,334 +1369,355 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="10">
-        <v>4829</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" s="13">
+        <v>4970</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="26">
-        <v>2</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="K11" s="29">
+        <v>6</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="29">
+        <v>62</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="17"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="19">
+        <v>4889</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="30">
+        <v>4</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30">
         <v>30</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26" t="s">
+      <c r="X12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="21"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="13">
+        <v>4888</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="29">
+        <v>4</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29">
         <v>30</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26">
-        <v>25</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y11" s="7" t="s">
+      <c r="X13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="17"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="22">
+        <v>4887</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="31">
+        <v>4</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11" s="26" t="s">
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31">
         <v>30</v>
       </c>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="15">
-        <v>4827</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="28">
-        <v>2</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28">
-        <v>10</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="10">
-        <v>4826</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="26">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="X14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26">
-        <v>26</v>
-      </c>
-      <c r="X13" s="7" t="s">
+      <c r="Z14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="17">
-        <v>4825</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="30">
-        <v>2</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30">
-        <v>30</v>
-      </c>
-      <c r="X14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30" t="s">
-        <v>30</v>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="AC14" s="31"/>
+      <c r="AD14" s="24"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1714,6 +1746,7 @@
     <mergeCell ref="X1:AC7"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
+    <mergeCell ref="AD9:AD10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/format/medidasDeProteccion/documents/GeneratedFile.xlsx
+++ b/format/medidasDeProteccion/documents/GeneratedFile.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>Periodo Correspondiente: 2-12-2024</t>
-  </si>
-  <si>
-    <t>Consultado: 11-12-2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
+  <si>
+    <t>Periodo Correspondiente: 12-2024</t>
+  </si>
+  <si>
+    <t>Consultado: 13-12-2024</t>
   </si>
   <si>
     <t>Información Obtenida del Sistema Integral de Registro Estadístico (SIRE)</t>
@@ -38,6 +38,9 @@
     <t>Delito</t>
   </si>
   <si>
+    <t>Unidad</t>
+  </si>
+  <si>
     <t>Víctima(s)</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t>Medidas de Protección Solicitadas</t>
   </si>
   <si>
-    <t>Artículo 1311 CNPP.</t>
+    <t>Artículo 137 CNPP.</t>
   </si>
   <si>
     <t>Temporalidad</t>
@@ -119,33 +122,853 @@
     <t>No</t>
   </si>
   <si>
+    <t>Karina Reyes Avalos</t>
+  </si>
+  <si>
+    <t>1004202141539</t>
+  </si>
+  <si>
+    <t>Violación equiparada</t>
+  </si>
+  <si>
+    <t>Centro de Justicia Integral para las Mujeres Uruapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MILAGROS MONSERRAT LEAL CARRILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Femenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mexicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Uruapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-13 13:35:36</t>
+  </si>
+  <si>
+    <t>2024-12-12 20:30:00</t>
+  </si>
+  <si>
+    <t>2024-12-12 13:24:00</t>
+  </si>
+  <si>
+    <t>Iván  Rodríguez  Hernández</t>
+  </si>
+  <si>
+    <t>1007202447517</t>
+  </si>
+  <si>
+    <t>Violencia familiar</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de La Piedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LUISA FRANCELI PAZ GARCÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La Piedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vigilancia en el domicilio de la víctima u ofendido
+Protección policial de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-12-13 12:10:37</t>
+  </si>
+  <si>
+    <t>2024-12-13 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-13 12:00:00</t>
+  </si>
+  <si>
+    <t>Adriana Sixtos Calvillo</t>
+  </si>
+  <si>
+    <t>1002202446492</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MENOR DE INICIALES J.F. C. Z.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Separación inmediata del domicilio</t>
+  </si>
+  <si>
+    <t>2024-12-13 11:53:35</t>
+  </si>
+  <si>
+    <t>2024-12-05 11:50:00</t>
+  </si>
+  <si>
+    <t>2025-02-05 11:52:00</t>
+  </si>
+  <si>
+    <t>Lizeth Pineda Garcia</t>
+  </si>
+  <si>
+    <t>1003202447311</t>
+  </si>
+  <si>
+    <t>Amenazas</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación y Persecución de Delitos Cometidos a través de Medios Cibernéticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ABELARDO FLORES JACOBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Morelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Protección policial de la víctima u ofendido</t>
+  </si>
+  <si>
+    <t>2024-12-13 11:46:58</t>
+  </si>
+  <si>
+    <t>2024-12-11 10:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 10:00:00</t>
+  </si>
+  <si>
+    <t>Libia Martinez Cardenas</t>
+  </si>
+  <si>
+    <t>1003202447003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+KAREN JANET GUERRERO PEREZ
+SONIA AVILES CONTRERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Femenino
+Femenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+34
+43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mexicana
+Mexicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Michoacán de Ocampo
+Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Morelia
+Morelia</t>
+  </si>
+  <si>
+    <t>2024-12-13 11:26:28</t>
+  </si>
+  <si>
+    <t>Perla Violeta Abraham Vega</t>
+  </si>
+  <si>
+    <t>1007202447513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M. RUTH GUEVARA DÍAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Puruándiro</t>
+  </si>
+  <si>
+    <t>2024-12-13 10:30:24</t>
+  </si>
+  <si>
+    <t>2024-12-12 20:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12 20:00:00</t>
+  </si>
+  <si>
+    <t>1007202447412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JUAN RESTRADA RAMIREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+65</t>
+  </si>
+  <si>
+    <t>2024-12-13 09:59:15</t>
+  </si>
+  <si>
+    <t>2024-12-12 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-12 12:00:00</t>
+  </si>
+  <si>
+    <t>Claudia Monserrat Martinez Fuerte</t>
+  </si>
+  <si>
+    <t>1003202447503</t>
+  </si>
+  <si>
+    <t>Centro de Justicia Integral para las Mujeres Morelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMIL NOLDET VÁZQUEZ GUTÍERREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Vigilancia en el domicilio de la víctima u ofendido
+Protección policial de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-13 09:52:45</t>
+  </si>
+  <si>
+    <t>2024-12-12 17:45:00</t>
+  </si>
+  <si>
+    <t>2025-01-12 17:45:00</t>
+  </si>
+  <si>
+    <t>1003202447427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+KARLA MORELIA OROZCO LULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+34</t>
+  </si>
+  <si>
+    <t>2024-12-13 09:46:59</t>
+  </si>
+  <si>
+    <t>2024-12-12 12:35:00</t>
+  </si>
+  <si>
+    <t>2025-01-12 12:35:00</t>
+  </si>
+  <si>
+    <t>Angeles Alvarado Ayala</t>
+  </si>
+  <si>
+    <t>1007202447524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ESTEFANÍA SANTOS ALVARADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23</t>
+  </si>
+  <si>
+    <t>2024-12-13 09:46:25</t>
+  </si>
+  <si>
+    <t>2024-12-12 21:00:00</t>
+  </si>
+  <si>
+    <t>1007202447515</t>
+  </si>
+  <si>
+    <t>Lesiones en razón de parentesco o relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARÍA CAMILA MONTES GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+19</t>
+  </si>
+  <si>
+    <t>2024-12-13 09:43:31</t>
+  </si>
+  <si>
+    <t>2024-12-12 19:40:00</t>
+  </si>
+  <si>
+    <t>2024-01-12 19:40:00</t>
+  </si>
+  <si>
+    <t>Yazmín Celeste Godoy Rodriguez</t>
+  </si>
+  <si>
+    <t>1008202447285</t>
+  </si>
+  <si>
+    <t>Violación</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Coalcoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AISLA ESPERANZA JUAREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+Vigilancia en el domicilio de la víctima u ofendido
+Protección policial de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-12 12:54:14</t>
+  </si>
+  <si>
+    <t>2024-12-11 18:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-10 18:30:00</t>
+  </si>
+  <si>
+    <t>Rosa Nely Rodriguez Paniagua</t>
+  </si>
+  <si>
+    <t>1003202447331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ARELI BRISEIDA MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2024-12-12 10:24:40</t>
+  </si>
+  <si>
+    <t>2024-12-11 18:10:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 18:10:00</t>
+  </si>
+  <si>
+    <t>1003202447307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GABRIELA RAMIREZ GARCIA</t>
+  </si>
+  <si>
+    <t>2024-12-12 10:18:01</t>
+  </si>
+  <si>
+    <t>2024-12-11 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 15:00:00</t>
+  </si>
+  <si>
+    <t>1003202447287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARTHA ARROYO RUBIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+64</t>
+  </si>
+  <si>
+    <t>2024-12-12 09:56:20</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 14:30:00</t>
+  </si>
+  <si>
+    <t>MARICELA TORRES GOVEA</t>
+  </si>
+  <si>
+    <t>1003202447322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LIZBETH MANUEL BARRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+43</t>
+  </si>
+  <si>
+    <t>2024-12-12 09:46:34</t>
+  </si>
+  <si>
+    <t>2024-12-11 17:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 05:46:00</t>
+  </si>
+  <si>
+    <t>1007202447249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ELVA MEDINA CUEVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+59</t>
+  </si>
+  <si>
+    <t>2024-12-11 20:08:34</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:30:00</t>
+  </si>
+  <si>
+    <t>2025-02-11 12:30:00</t>
+  </si>
+  <si>
+    <t>1007202447240</t>
+  </si>
+  <si>
+    <t>Lesiones calificadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JOSÉ EDUARDO GONZÁLEZ MENDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+46</t>
+  </si>
+  <si>
+    <t>2024-12-11 18:12:29</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 11:30:00</t>
+  </si>
+  <si>
+    <t>1003202443149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+YARITZY YAZMIN GARCIA LUQUIN</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:34:18</t>
+  </si>
+  <si>
+    <t>2024-12-11 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-11 13:00:00</t>
+  </si>
+  <si>
+    <t>Jerry Jonathan Trejo Calderon</t>
+  </si>
+  <si>
+    <t>1003202436310</t>
+  </si>
+  <si>
+    <t>Homicidio calificado</t>
+  </si>
+  <si>
+    <t>Fiscalía Especializada en Homicidio Doloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JESSICA MANRIQUEZ JUÁREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:23:18</t>
+  </si>
+  <si>
+    <t>2024-12-03 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-03 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NÉSTOR MANRIQUEZ JUÁREZ</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:19:00</t>
+  </si>
+  <si>
+    <t>2025-02-03 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CRISTINA RODRÍGUEZ RUÍZ</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:14:07</t>
+  </si>
+  <si>
+    <t>2024-12-04 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-04 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ERIKA PATIÑO DURÁN</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:11:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LEONARDO GONZALEZ TELLEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+83</t>
+  </si>
+  <si>
+    <t>2024-12-11 14:09:36</t>
+  </si>
+  <si>
+    <t>Grecia Esmeralda Bejarano Peñate</t>
+  </si>
+  <si>
+    <t>1003202430610</t>
+  </si>
+  <si>
+    <t>Homicidio doloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GRISELDA ZARCO MOLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+56</t>
+  </si>
+  <si>
+    <t>2024-12-11 13:58:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JUAN CARLOS CONTRERAS ALVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+53</t>
+  </si>
+  <si>
+    <t>2024-12-11 13:54:28</t>
+  </si>
+  <si>
+    <t>1007202445828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AGUSTIN AGUILAR GARCÍA</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:57:51</t>
+  </si>
+  <si>
+    <t>2024-12-01 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-01 13:00:00</t>
+  </si>
+  <si>
+    <t>Noe David Díaz Anguiano</t>
+  </si>
+  <si>
+    <t>1003201642462</t>
+  </si>
+  <si>
+    <t>Homicidio en relación de parentesco o relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JORGE OJEDA CERVANTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+49</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:18:10</t>
+  </si>
+  <si>
+    <t>2025-01-04 12:00:00</t>
+  </si>
+  <si>
+    <t>Prueba Prueba Prueba</t>
+  </si>
+  <si>
+    <t>1003202400051</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional Morelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO DE PRUEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:11:19</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:10:00</t>
+  </si>
+  <si>
+    <t>2024-12-25 18:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EDUARDO FULGENCIO HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+60</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:40:55</t>
+  </si>
+  <si>
+    <t>2024-12-04 16:12:00</t>
+  </si>
+  <si>
+    <t>2025-02-04 16:12:00</t>
+  </si>
+  <si>
+    <t>Atziri Cortéz Corzo</t>
+  </si>
+  <si>
+    <t>1003202447195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JOHANA ROSA SILVA ROSALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+44</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:35:30</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10 20:00:00</t>
+  </si>
+  <si>
+    <t>1003202447096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LINDSAY PANIAGUA ORNELAS</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:26:41</t>
+  </si>
+  <si>
+    <t>2024-12-10 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-10 13:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:06:19</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:04:00</t>
+  </si>
+  <si>
+    <t>2024-12-19 17:06:00</t>
+  </si>
+  <si>
+    <t>Gustavo Daniel Castillo Bello</t>
+  </si>
+  <si>
+    <t>1004202447160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARICELA OSEGUERA ESPINOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Buenavista</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:41:32</t>
+  </si>
+  <si>
+    <t>2024-12-10 19:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-10 19:00:00</t>
+  </si>
+  <si>
+    <t>Alicia  Garibay  Amezcua</t>
+  </si>
+  <si>
+    <t>1007202447199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARGARITA MENDEZ GALLARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+55</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:38:31</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:25:00</t>
+  </si>
+  <si>
+    <t>2025-01-10 20:25:00</t>
+  </si>
+  <si>
+    <t>1004202447191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BRENDA FABIOLA GODINEZ QUIROZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+39</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:37:57</t>
+  </si>
+  <si>
+    <t>2025-01-10 20:00:00</t>
+  </si>
+  <si>
     <t>Javier Andres Bucio García</t>
   </si>
   <si>
     <t>1007202445929</t>
   </si>
   <si>
-    <t>Amenazas</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 IVAN MORA ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Masculino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mexicana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Michoacán de Ocampo</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -161,9 +984,6 @@
 El reingreso de la víctima u ofendido a su domicilio, una vez que se salvaguarde su seguridad</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2024-12-10 20:31:18</t>
   </si>
   <si>
@@ -173,76 +993,921 @@
     <t>2025-02-02 13:00:00</t>
   </si>
   <si>
+    <t>1007202446103</t>
+  </si>
+  <si>
+    <t>Ataques a la propia imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JUAN BERNANRDO SALCEDO NAVARRO</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:29:14</t>
+  </si>
+  <si>
+    <t>2024-12-03 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-03 13:00:00</t>
+  </si>
+  <si>
+    <t>1007202446553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ESTELA CORTÉS MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>2024-12-10 20:26:51</t>
+  </si>
+  <si>
+    <t>2024-12-06 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-06 12:00:00</t>
+  </si>
+  <si>
+    <t>1007202446957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JOSÉ ÁNGEL HURTADO SOTO</t>
+  </si>
+  <si>
+    <t>2024-12-10 18:40:32</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:20:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 14:20:00</t>
+  </si>
+  <si>
+    <t>Yesenia Yuritzi Ortiz Alcantar</t>
+  </si>
+  <si>
+    <t>1003202447039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DIANA ALEXIA MEDINA ALCARAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+30</t>
+  </si>
+  <si>
+    <t>2024-12-10 15:10:57</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:38:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 14:38:00</t>
+  </si>
+  <si>
+    <t>1003202446990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+KARINA CABELLO MORALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+45</t>
+  </si>
+  <si>
+    <t>2024-12-10 14:59:52</t>
+  </si>
+  <si>
+    <t>2024-12-09 19:20:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 19:20:00</t>
+  </si>
+  <si>
+    <t>1003202446983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DARYANA XIMENA FULGENCIO LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+18</t>
+  </si>
+  <si>
+    <t>2024-12-10 14:42:02</t>
+  </si>
+  <si>
+    <t>2024-12-09 18:15:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 18:16:00</t>
+  </si>
+  <si>
+    <t>1003202446919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MA. ELENA RAUDA OROZCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+48</t>
+  </si>
+  <si>
+    <t>2024-12-10 14:21:26</t>
+  </si>
+  <si>
+    <t>2024-12-09 13:33:00</t>
+  </si>
+  <si>
+    <t>2025-02-09 13:33:00</t>
+  </si>
+  <si>
+    <t>1003202435967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CARLOTA BRENICE POLO AUREOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+37</t>
+  </si>
+  <si>
+    <t>2024-12-10 14:05:42</t>
+  </si>
+  <si>
+    <t>2024-12-09 11:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 11:30:00</t>
+  </si>
+  <si>
+    <t>1004202447074</t>
+  </si>
+  <si>
+    <t>Acoso Sexual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EVELIN ALEJANDRA MAGAÑA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14</t>
+  </si>
+  <si>
+    <t>2024-12-10 13:40:35</t>
+  </si>
+  <si>
+    <t>2024-12-10 11:50:00</t>
+  </si>
+  <si>
+    <t>2025-01-12 23:50:00</t>
+  </si>
+  <si>
+    <t>Victor Luna Beltran</t>
+  </si>
+  <si>
+    <t>1002202446876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARIO MARIN HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+40</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:56:54</t>
+  </si>
+  <si>
+    <t>2024-12-09 13:30:00</t>
+  </si>
+  <si>
+    <t>2025-02-07 13:13:00</t>
+  </si>
+  <si>
+    <t>1007202446956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JUANITA GONZÁLEZ X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+31</t>
+  </si>
+  <si>
+    <t>2024-12-09 20:32:51</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:12:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 15:12:00</t>
+  </si>
+  <si>
+    <t>1004202446961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ILIAN RAZO PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ario</t>
+  </si>
+  <si>
+    <t>2024-12-09 18:49:51</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:50:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 15:50:00</t>
+  </si>
+  <si>
+    <t>1003202445830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DAFNE ESTEFANY TORRES CHAVEZ</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:46:40</t>
+  </si>
+  <si>
+    <t>2024-12-01 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-31 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202445844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VIRIDIANA VILLA PIÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Vigilancia en el domicilio de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:43:20</t>
+  </si>
+  <si>
+    <t>1003202445877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ESMERALDA GARDES AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+29</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:40:12</t>
+  </si>
+  <si>
     <t>Brenda Lisset Jaimes Arroyo</t>
   </si>
   <si>
     <t>1003202445885</t>
   </si>
   <si>
-    <t>Lesiones en razón de parentesco o relación</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 GABRIELA MORENO HERNANDEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Femenino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Desconocido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t>2024-12-09 15:38:12</t>
+  </si>
+  <si>
+    <t>2024-12-02 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-01 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MERITH LILIANA FLORES PARDO</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:34:49</t>
+  </si>
+  <si>
+    <t>1003202446054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PATRICIA GONZALEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:32:18</t>
+  </si>
+  <si>
+    <t>José Oscar Álvarez Marín</t>
+  </si>
+  <si>
+    <t>1003202446067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+YULISSA GARFIAS SOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+27</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:29:26</t>
+  </si>
+  <si>
+    <t>2025-01-02 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MIRIAM RAYA CEJA</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:26:16</t>
+  </si>
+  <si>
+    <t>1003202446144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARIA GUADALUPE CALDERON MORON</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:22:24</t>
+  </si>
+  <si>
+    <t>1003202446159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALBERTINA GARCIA ROCHA</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:20:16</t>
+  </si>
+  <si>
+    <t>Raul Tuxpan Romero</t>
+  </si>
+  <si>
+    <t>1003202446265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BERENICE VILLASEÑOR CASTREJON</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:18:21</t>
+  </si>
+  <si>
+    <t>2025-01-03 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VERONICA ITZEL AYALA ALMANZA</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:16:02</t>
+  </si>
+  <si>
+    <t>Yunuén Bautista Olvera</t>
+  </si>
+  <si>
+    <t>1003202446486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LADY RUIZ MORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+47</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:13:25</t>
+  </si>
+  <si>
+    <t>2025-01-05 12:00:00</t>
+  </si>
+  <si>
+    <t>1003202446526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NIDIA RUBI GARCIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+32</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:11:21</t>
+  </si>
+  <si>
+    <t>Refugio Araceli Romero Hernández</t>
+  </si>
+  <si>
+    <t>1003202446607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+YOLANDA JEANILU HERNANDEZ ARROYO</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:08:29</t>
+  </si>
+  <si>
+    <t>2024-12-06 15:11:00</t>
+  </si>
+  <si>
+    <t>2025-01-05 15:11:00</t>
+  </si>
+  <si>
+    <t>1003202446677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CLAUDIA ELENA GALVAN DOMINGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+38</t>
+  </si>
+  <si>
+    <t>2024-12-09 15:05:39</t>
+  </si>
+  <si>
+    <t>2024-12-07 01:50:00</t>
+  </si>
+  <si>
+    <t>2025-01-06 12:00:00</t>
+  </si>
+  <si>
+    <t>Isaid Tentory Ramírez</t>
+  </si>
+  <si>
+    <t>1003202446708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARIA CARMEN ANAYA SANTOYO</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:59:57</t>
+  </si>
+  <si>
+    <t>2024-12-07 12:50:00</t>
+  </si>
+  <si>
+    <t>2025-01-06 12:50:00</t>
+  </si>
+  <si>
+    <t>1003202446743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LILIANA LOPEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+33</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:55:55</t>
+  </si>
+  <si>
+    <t>2024-12-07 16:50:00</t>
+  </si>
+  <si>
+    <t>2025-01-06 16:50:00</t>
+  </si>
+  <si>
+    <t>1003202446778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CHRISTIAN ISAURA SANCHEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:45:57</t>
+  </si>
+  <si>
+    <t>2024-12-08 04:20:00</t>
+  </si>
+  <si>
+    <t>2025-01-07 12:00:00</t>
+  </si>
+  <si>
+    <t>Julio Cesar Flores Lemus</t>
+  </si>
+  <si>
+    <t>1003202446823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LARISA ESTEFANIA GARCIA FABIAN</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:19:45</t>
+  </si>
+  <si>
+    <t>2024-12-08 19:10:00</t>
+  </si>
+  <si>
+    <t>2025-01-07 19:10:00</t>
+  </si>
+  <si>
+    <t>Fernando Rojas Cortes</t>
+  </si>
+  <si>
+    <t>1010202446480</t>
+  </si>
+  <si>
+    <t>Desaparición cometida por particulares</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Jiquilpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+fatima Guadalupe Herrera Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cotija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vigilancia en el domicilio de la víctima u ofendido
+Protección policial de la víctima u ofendido</t>
+  </si>
+  <si>
+    <t>2024-12-09 14:12:46</t>
+  </si>
+  <si>
+    <t>2024-12-08 20:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-08 20:00:00</t>
+  </si>
+  <si>
+    <t>Ana Karen Garfias Mendoza</t>
+  </si>
+  <si>
+    <t>1006202446204</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Zitácuaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALONDRA CRUZ GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tuxpan</t>
+  </si>
+  <si>
+    <t>2024-12-09 12:28:38</t>
+  </si>
+  <si>
+    <t>2024-12-03 14:15:00</t>
+  </si>
+  <si>
+    <t>2025-03-02 14:15:00</t>
+  </si>
+  <si>
+    <t>María del Rosario González Vieyra</t>
+  </si>
+  <si>
+    <t>1006202446427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GREGORIA MARIN PAZ
+MIGUEL REYES GUZMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Femenino
+Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+91
+92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Zitácuaro
+Zitácuaro</t>
+  </si>
+  <si>
+    <t>2024-12-09 09:42:22</t>
+  </si>
+  <si>
+    <t>2024-12-05 14:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-03 14:30:00</t>
+  </si>
+  <si>
+    <t>Cristina Téllez Flores</t>
+  </si>
+  <si>
+    <t>1010202446665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ma. Guadalupe Madrigal Mancilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0</t>
+  </si>
+  <si>
+    <t>2024-12-09 09:39:22</t>
+  </si>
+  <si>
+    <t>1010202446692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mario Alberto Garibay Ochoa</t>
+  </si>
+  <si>
+    <t>2024-12-09 09:36:00</t>
+  </si>
+  <si>
+    <t>2024-12-07 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-07 12:00:00</t>
+  </si>
+  <si>
+    <t>1010202446567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nayeli  Viridiana Bautista Garcia</t>
+  </si>
+  <si>
+    <t>2024-12-09 09:32:44</t>
+  </si>
+  <si>
+    <t>2024-12-06 19:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-06 19:00:00</t>
+  </si>
+  <si>
+    <t>PEDRO XOCHIPA RIOS</t>
+  </si>
+  <si>
+    <t>1002202446707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PAULINA PINEDA GARCIA</t>
+  </si>
+  <si>
+    <t>2024-12-08 19:18:53</t>
+  </si>
+  <si>
+    <t>2024-12-07 14:10:00</t>
+  </si>
+  <si>
+    <t>2025-02-05 14:10:00</t>
+  </si>
+  <si>
+    <t>Leticia Esquivel Beltrán</t>
+  </si>
+  <si>
+    <t>1010202446119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Andrea Nayely Garcia Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vigilancia en el domicilio de la víctima u ofendido
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-08 18:49:43</t>
+  </si>
+  <si>
+    <t>2024-12-05 12:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-05 12:30:00</t>
+  </si>
+  <si>
+    <t>Itzel Gómez Moreno</t>
+  </si>
+  <si>
+    <t>1009202441954</t>
+  </si>
+  <si>
+    <t>Privación de la libertad personal</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Huetamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yesenia Ruiz Albarran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Huetamo</t>
+  </si>
+  <si>
+    <t>2024-12-08 13:16:17</t>
+  </si>
+  <si>
+    <t>2024-12-06 13:27:00</t>
+  </si>
+  <si>
+    <t>2025-12-06 13:27:00</t>
+  </si>
+  <si>
+    <t>Ruperto Lucatero Sanchez</t>
+  </si>
+  <si>
+    <t>1009202445782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Adolescente de Iniciales D. S. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
+Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>2024-12-08 13:06:54</t>
+  </si>
+  <si>
+    <t>2024-12-01 19:28:00</t>
+  </si>
+  <si>
+    <t>2025-01-14 19:28:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MIRIAM ALARCON RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2024-12-08 12:50:42</t>
+  </si>
+  <si>
+    <t>Esther Reyes Piceno</t>
+  </si>
+  <si>
+    <t>1001202445829</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional de Apatzingan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ADRIANA YERALDINE GUEVARA CASTREJON</t>
+  </si>
+  <si>
+    <t>2024-12-07 20:29:49</t>
+  </si>
+  <si>
+    <t>2024-12-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-09 15:00:00</t>
+  </si>
+  <si>
+    <t>1008202446158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+maria felix garcía oseguera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tepalcatepec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable
 La prohibición de realizar conductas de intimidación o molestia a la víctima u ofendido o a personas relacionados con ellos
 Vigilancia en el domicilio de la víctima u ofendido
 Protección policial de la víctima u ofendido
 Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
   </si>
   <si>
-    <t>2024-12-09 15:38:12</t>
-  </si>
-  <si>
-    <t>2024-12-02 12:00:00</t>
-  </si>
-  <si>
-    <t>2025-01-01 12:00:00</t>
-  </si>
-  <si>
-    <t>1003202446007</t>
-  </si>
-  <si>
-    <t>Violencia familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MERITH LILIANA FLORES PARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-37</t>
-  </si>
-  <si>
-    <t>2024-12-09 15:34:49</t>
-  </si>
-  <si>
-    <t>1003202446054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-PATRICIA GONZALEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-25</t>
-  </si>
-  <si>
-    <t>2024-12-09 15:32:18</t>
+    <t>2024-12-07 15:02:39</t>
+  </si>
+  <si>
+    <t>2024-12-03 17:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-01 17:00:00</t>
+  </si>
+  <si>
+    <t>Nancy Viridiana Andrade Arriaga</t>
+  </si>
+  <si>
+    <t>1004202446284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALMA ROSA JIMENEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>2024-12-07 14:44:11</t>
+  </si>
+  <si>
+    <t>2024-12-04 13:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-02 13:30:00</t>
+  </si>
+  <si>
+    <t>1004202446469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DULCE ROCIO MORALES CHAVEZ</t>
+  </si>
+  <si>
+    <t>2024-12-07 14:30:14</t>
+  </si>
+  <si>
+    <t>2024-12-05 17:40:00</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:40:00</t>
+  </si>
+  <si>
+    <t>1004202446704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARIA SOCORRO SUAREZ PEREZ</t>
+  </si>
+  <si>
+    <t>2024-12-07 14:21:42</t>
+  </si>
+  <si>
+    <t>2024-12-07 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-05 13:00:00</t>
+  </si>
+  <si>
+    <t>1004202446643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ELOISA MARTIN SANCHEZ</t>
+  </si>
+  <si>
+    <t>2024-12-07 13:50:48</t>
+  </si>
+  <si>
+    <t>2024-01-04 20:00:00</t>
   </si>
 </sst>
 </file>
@@ -250,7 +1915,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -285,15 +1950,6 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="24"/>
-      <color rgb="000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -351,6 +2007,14 @@
       <left style="thin">
         <color rgb="152f4a"/>
       </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="152f4a"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="152f4a"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
@@ -459,14 +2123,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="152f4a"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="152f4a"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <bottom style="thin">
@@ -506,10 +2162,10 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,20 +2177,20 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -542,19 +2198,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,13 +2225,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -630,7 +2286,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -981,10 +2637,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AE96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AD96" sqref="AD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -992,16 +2648,16 @@
     <col min="1" max="1" width="7.2" customWidth="true" style="0"/>
     <col min="2" max="2" width="37.5" customWidth="true" style="0"/>
     <col min="3" max="3" width="18" customWidth="true" style="0"/>
-    <col min="4" max="4" width="52.8" customWidth="true" style="0"/>
-    <col min="5" max="5" width="61.5" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="23.7" customWidth="true" style="0"/>
-    <col min="10" max="10" width="20.7" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.1" customWidth="true" style="0"/>
-    <col min="12" max="12" width="90" customWidth="true" style="0"/>
-    <col min="13" max="13" width="4.65" customWidth="true" style="0"/>
+    <col min="4" max="4" width="52.5" customWidth="true" style="0"/>
+    <col min="5" max="5" width="52.5" customWidth="true" style="0"/>
+    <col min="6" max="6" width="61.5" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.3" customWidth="true" style="0"/>
+    <col min="8" max="8" width="7.2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.8" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23.7" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20.7" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.1" customWidth="true" style="0"/>
+    <col min="13" max="13" width="90" customWidth="true" style="0"/>
     <col min="14" max="14" width="4.65" customWidth="true" style="0"/>
     <col min="15" max="15" width="4.65" customWidth="true" style="0"/>
     <col min="16" max="16" width="4.65" customWidth="true" style="0"/>
@@ -1011,30 +2667,31 @@
     <col min="20" max="20" width="4.65" customWidth="true" style="0"/>
     <col min="21" max="21" width="4.65" customWidth="true" style="0"/>
     <col min="22" max="22" width="4.65" customWidth="true" style="0"/>
-    <col min="23" max="23" width="17.85" customWidth="true" style="0"/>
+    <col min="23" max="23" width="4.65" customWidth="true" style="0"/>
     <col min="24" max="24" width="23.1" customWidth="true" style="0"/>
     <col min="25" max="25" width="23.1" customWidth="true" style="0"/>
     <col min="26" max="26" width="23.1" customWidth="true" style="0"/>
-    <col min="27" max="27" width="6.75" customWidth="true" style="0"/>
+    <col min="27" max="27" width="23.1" customWidth="true" style="0"/>
     <col min="28" max="28" width="6.75" customWidth="true" style="0"/>
-    <col min="29" max="29" width="17.85" customWidth="true" style="0"/>
+    <col min="29" max="29" width="6.75" customWidth="true" style="0"/>
     <col min="30" max="30" width="27" customWidth="true" style="0"/>
+    <col min="31" max="31" width="27" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
@@ -1045,28 +2702,29 @@
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
       <c r="AB1" s="26"/>
       <c r="AC1" s="26"/>
-      <c r="AD1" s="7"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="8"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -1077,28 +2735,29 @@
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
       <c r="AB2" s="27"/>
       <c r="AC2" s="27"/>
-      <c r="AD2" s="8"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -1109,28 +2768,29 @@
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -1141,30 +2801,31 @@
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="27"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="27"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -1175,30 +2836,31 @@
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
       <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
-      <c r="AD5" s="8"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="27"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
@@ -1209,28 +2871,29 @@
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="9"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
@@ -1241,30 +2904,31 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
-      <c r="AD7" s="8"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="9"/>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="18"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:31">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -1275,88 +2939,92 @@
       <c r="U8" s="28"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
-      <c r="AD8" s="9"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="10"/>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:31">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:31">
+      <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1368,9 +3036,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1398,326 +3064,6695 @@
       <c r="V10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="16"/>
+      <c r="AC10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="17"/>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="13">
-        <v>4970</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:31">
+      <c r="A11" s="14">
+        <v>5118</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="29">
-        <v>6</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="K11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="L11" s="29">
+        <v>4</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q11" s="29"/>
       <c r="R11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="29">
-        <v>62</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="17"/>
+      <c r="AA11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="18"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" s="19">
-        <v>4889</v>
+        <v>5117</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="20" t="s">
         <v>40</v>
       </c>
+      <c r="H12" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" s="20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="30">
-        <v>4</v>
-      </c>
-      <c r="L12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="30"/>
+      <c r="L12" s="30">
+        <v>3</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30">
         <v>31</v>
       </c>
-      <c r="R12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30">
-        <v>30</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="Y12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="21"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="14">
+        <v>5116</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="29">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="21"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="13">
-        <v>4888</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="29">
-        <v>4</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="P13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
-      <c r="W13" s="29">
+      <c r="W13" s="29"/>
+      <c r="X13" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="18"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="19">
+        <v>5115</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="21"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="14">
+        <v>5111</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="29">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="18"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="19">
+        <v>5099</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="30">
+        <v>3</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="21"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="14">
+        <v>5098</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="29">
+        <v>3</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="18"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="19">
+        <v>5097</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="30">
+        <v>4</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="21"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="14">
+        <v>5096</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="29">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="18"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="19">
+        <v>5095</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="30">
+        <v>3</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="21"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="14">
+        <v>5094</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="29">
+        <v>3</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29">
+        <v>-335</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="18"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="19">
+        <v>5085</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="30">
+        <v>5</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30">
         <v>30</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="Y22" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="21"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="14">
+        <v>5071</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="29">
+        <v>3</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="18"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="19">
+        <v>5070</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="30">
+        <v>4</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="21"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="14">
+        <v>5069</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="29">
+        <v>3</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="18"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="19">
+        <v>5068</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="30">
+        <v>4</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z26" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="21"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="14">
+        <v>5067</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="29">
+        <v>3</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="18"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="19">
+        <v>5055</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="30">
+        <v>3</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z28" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA28" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="21"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="14">
+        <v>5053</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="29">
+        <v>4</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="18"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="19">
+        <v>5052</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30" s="30">
+        <v>3</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30">
+        <v>365</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA30" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="21"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="14">
+        <v>5050</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="29">
+        <v>3</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="18"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="19">
+        <v>5048</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="30">
+        <v>3</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z32" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="21"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="14">
+        <v>5046</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="29">
+        <v>3</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="18"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="19">
+        <v>5045</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="30">
+        <v>3</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z34" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA34" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="21"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="14">
+        <v>5041</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="29">
+        <v>4</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA35" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="18"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="19">
+        <v>5038</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="30">
+        <v>4</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z36" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="21"/>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="14">
+        <v>5019</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="29">
+        <v>3</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="18"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="19">
+        <v>5016</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="30">
+        <v>3</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z38" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA38" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="21"/>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="14">
+        <v>5013</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="29">
+        <v>2</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29">
+        <v>-5</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA39" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="18"/>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="19">
+        <v>5003</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="30">
+        <v>3</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y40" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z40" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA40" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="21"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="14">
+        <v>5002</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="29">
+        <v>4</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="18"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="19">
+        <v>5001</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" s="30">
+        <v>4</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y42" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z42" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA42" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="21"/>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="14">
+        <v>4993</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="29">
+        <v>2</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="18"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="19">
+        <v>4973</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="L44" s="30">
+        <v>4</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y44" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA44" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="21"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="14">
+        <v>4972</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="29">
+        <v>3</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="18"/>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="19">
+        <v>4971</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="30">
+        <v>4</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y46" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z46" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA46" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="21"/>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="14">
+        <v>4970</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" s="29">
+        <v>6</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X47" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="18"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="19">
+        <v>4969</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="L48" s="30">
+        <v>6</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="X48" s="30">
+        <v>-304</v>
+      </c>
+      <c r="Y48" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z48" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA48" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="21"/>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="14">
+        <v>4968</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" s="29">
+        <v>6</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X49" s="29">
+        <v>62</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="18"/>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="19">
+        <v>4940</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="30">
+        <v>3</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="21"/>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="14">
+        <v>4939</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L51" s="29">
+        <v>3</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA51" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="18"/>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="19">
+        <v>4938</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L52" s="30">
+        <v>3</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y52" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z52" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA52" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="21"/>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="14">
+        <v>4937</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" s="29">
+        <v>3</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y53" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z53" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA53" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="18"/>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="19">
+        <v>4933</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" s="30">
+        <v>4</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30">
+        <v>62</v>
+      </c>
+      <c r="Y54" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z54" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA54" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="21"/>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="14">
+        <v>4931</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L55" s="29">
+        <v>3</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z55" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA55" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="18"/>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="19">
+        <v>4930</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="30">
+        <v>4</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30">
+        <v>33</v>
+      </c>
+      <c r="Y56" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z56" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA56" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="21"/>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="14">
+        <v>4917</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="10" t="s">
+      <c r="F57" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" s="29">
+        <v>3</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29" t="s">
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z57" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA57" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="18"/>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="19">
+        <v>4910</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="30">
+        <v>3</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30">
         <v>31</v>
       </c>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="17"/>
+      <c r="Y58" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z58" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA58" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="21"/>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="22">
+    <row r="59" spans="1:31">
+      <c r="A59" s="14">
+        <v>4909</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L59" s="29">
+        <v>4</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA59" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="18"/>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="19">
+        <v>4892</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L60" s="30">
+        <v>4</v>
+      </c>
+      <c r="M60" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z60" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA60" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="21"/>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="14">
+        <v>4891</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L61" s="29">
+        <v>3</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y61" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z61" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA61" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="18"/>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="19">
+        <v>4890</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L62" s="30">
+        <v>4</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U62" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y62" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z62" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA62" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="21"/>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="14">
+        <v>4889</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L63" s="29">
+        <v>4</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z63" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA63" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="18"/>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="19">
+        <v>4888</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L64" s="30">
+        <v>4</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N64" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T64" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U64" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y64" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z64" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA64" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD64" s="30"/>
+      <c r="AE64" s="21"/>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" s="14">
         <v>4887</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="B65" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" s="29">
+        <v>4</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T65" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U65" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z65" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA65" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="18"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="19">
+        <v>4886</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="30">
+        <v>3</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T66" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U66" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y66" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z66" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA66" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="21"/>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="14">
+        <v>4885</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L67" s="29">
+        <v>4</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z67" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA67" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="18"/>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="19">
+        <v>4884</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L68" s="30">
+        <v>3</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T68" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U68" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y68" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z68" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA68" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="21"/>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69" s="14">
+        <v>4883</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L69" s="29">
+        <v>3</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T69" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y69" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z69" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA69" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="18"/>
+    </row>
+    <row r="70" spans="1:31">
+      <c r="A70" s="19">
+        <v>4882</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L70" s="30">
+        <v>3</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U70" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y70" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z70" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA70" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="21"/>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="A71" s="14">
+        <v>4881</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L71" s="29">
+        <v>3</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T71" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U71" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y71" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z71" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA71" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="18"/>
+    </row>
+    <row r="72" spans="1:31">
+      <c r="A72" s="19">
+        <v>4880</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" s="30">
+        <v>3</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U72" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y72" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z72" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA72" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="21"/>
+    </row>
+    <row r="73" spans="1:31">
+      <c r="A73" s="14">
+        <v>4879</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L73" s="29">
+        <v>3</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N73" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z73" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA73" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="18"/>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="A74" s="19">
+        <v>4878</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L74" s="30">
+        <v>3</v>
+      </c>
+      <c r="M74" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T74" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U74" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y74" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z74" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA74" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="21"/>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" s="14">
+        <v>4877</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L75" s="29">
+        <v>3</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y75" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z75" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA75" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="18"/>
+    </row>
+    <row r="76" spans="1:31">
+      <c r="A76" s="19">
+        <v>4876</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K76" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" s="30">
+        <v>3</v>
+      </c>
+      <c r="M76" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T76" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U76" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y76" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z76" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA76" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD76" s="30"/>
+      <c r="AE76" s="21"/>
+    </row>
+    <row r="77" spans="1:31">
+      <c r="A77" s="14">
+        <v>4875</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L77" s="29">
+        <v>3</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y77" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z77" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA77" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="18"/>
+    </row>
+    <row r="78" spans="1:31">
+      <c r="A78" s="19">
+        <v>4874</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K78" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L78" s="30">
+        <v>3</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N78" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U78" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y78" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z78" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA78" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD78" s="30"/>
+      <c r="AE78" s="21"/>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="A79" s="14">
+        <v>4871</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L79" s="29">
+        <v>4</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N79" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y79" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z79" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA79" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="18"/>
+    </row>
+    <row r="80" spans="1:31">
+      <c r="A80" s="19">
+        <v>4870</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="L80" s="30">
+        <v>2</v>
+      </c>
+      <c r="M80" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="N80" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T80" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U80" s="30"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30">
+        <v>31</v>
+      </c>
+      <c r="Y80" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z80" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA80" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="21"/>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="A81" s="14">
+        <v>4867</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="L81" s="29">
+        <v>4</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N81" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29">
+        <v>89</v>
+      </c>
+      <c r="Y81" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z81" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA81" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="18"/>
+    </row>
+    <row r="82" spans="1:31">
+      <c r="A82" s="19">
+        <v>4864</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="L82" s="30">
+        <v>3</v>
+      </c>
+      <c r="M82" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T82" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U82" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30">
+        <v>29</v>
+      </c>
+      <c r="Y82" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z82" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA82" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD82" s="30"/>
+      <c r="AE82" s="21"/>
+    </row>
+    <row r="83" spans="1:31">
+      <c r="A83" s="14">
+        <v>4863</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L83" s="29">
+        <v>3</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N83" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U83" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z83" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA83" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD83" s="29"/>
+      <c r="AE83" s="18"/>
+    </row>
+    <row r="84" spans="1:31">
+      <c r="A84" s="19">
+        <v>4861</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G84" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="H84" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L84" s="30">
+        <v>3</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N84" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T84" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U84" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30">
+        <v>365</v>
+      </c>
+      <c r="Y84" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z84" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA84" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD84" s="30"/>
+      <c r="AE84" s="21"/>
+    </row>
+    <row r="85" spans="1:31">
+      <c r="A85" s="14">
+        <v>4860</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G85" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="31">
+      <c r="H85" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L85" s="29">
+        <v>3</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N85" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T85" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U85" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y85" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z85" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA85" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="18"/>
+    </row>
+    <row r="86" spans="1:31">
+      <c r="A86" s="19">
+        <v>4859</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L86" s="30">
+        <v>3</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T86" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U86" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30">
+        <v>60</v>
+      </c>
+      <c r="Y86" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z86" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA86" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="21"/>
+    </row>
+    <row r="87" spans="1:31">
+      <c r="A87" s="14">
+        <v>4858</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L87" s="29">
+        <v>2</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="N87" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29">
+        <v>31</v>
+      </c>
+      <c r="Y87" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z87" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA87" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="18"/>
+    </row>
+    <row r="88" spans="1:31">
+      <c r="A88" s="19">
+        <v>4857</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="L88" s="30">
+        <v>3</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="N88" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S88" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30">
+        <v>365</v>
+      </c>
+      <c r="Y88" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z88" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA88" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD88" s="30"/>
+      <c r="AE88" s="21"/>
+    </row>
+    <row r="89" spans="1:31">
+      <c r="A89" s="14">
+        <v>4856</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="L89" s="29">
+        <v>2</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="N89" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29">
+        <v>44</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z89" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA89" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="18"/>
+    </row>
+    <row r="90" spans="1:31">
+      <c r="A90" s="19">
+        <v>4855</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="L90" s="30">
+        <v>2</v>
+      </c>
+      <c r="M90" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="N90" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30">
+        <v>44</v>
+      </c>
+      <c r="Y90" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z90" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA90" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD90" s="30"/>
+      <c r="AE90" s="21"/>
+    </row>
+    <row r="91" spans="1:31">
+      <c r="A91" s="14">
+        <v>4835</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L91" s="29">
         <v>4</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="31" t="s">
+      <c r="M91" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N91" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S91" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U91" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29">
+        <v>39</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z91" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA91" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="18"/>
+    </row>
+    <row r="92" spans="1:31">
+      <c r="A92" s="19">
+        <v>4834</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="L92" s="30">
+        <v>5</v>
+      </c>
+      <c r="M92" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="N92" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30">
+        <v>29</v>
+      </c>
+      <c r="Y92" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z92" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA92" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="21"/>
+    </row>
+    <row r="93" spans="1:31">
+      <c r="A93" s="14">
+        <v>4833</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L93" s="29">
+        <v>4</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N93" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S93" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U93" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29">
+        <v>29</v>
+      </c>
+      <c r="Y93" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z93" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA93" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="18"/>
+    </row>
+    <row r="94" spans="1:31">
+      <c r="A94" s="19">
+        <v>4832</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31">
-        <v>30</v>
-      </c>
-      <c r="X14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y14" s="23" t="s">
+      <c r="L94" s="30">
+        <v>4</v>
+      </c>
+      <c r="M94" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N94" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Z14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="24"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30">
+        <v>29</v>
+      </c>
+      <c r="Y94" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z94" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA94" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD94" s="30"/>
+      <c r="AE94" s="21"/>
+    </row>
+    <row r="95" spans="1:31">
+      <c r="A95" s="14">
+        <v>4831</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L95" s="29">
+        <v>4</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N95" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S95" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U95" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29">
+        <v>29</v>
+      </c>
+      <c r="Y95" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z95" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA95" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="18"/>
+    </row>
+    <row r="96" spans="1:31">
+      <c r="A96" s="22">
+        <v>4830</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L96" s="31">
+        <v>4</v>
+      </c>
+      <c r="M96" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N96" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V96" s="31"/>
+      <c r="W96" s="31"/>
+      <c r="X96" s="31">
+        <v>-337</v>
+      </c>
+      <c r="Y96" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z96" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA96" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB96" s="31"/>
+      <c r="AC96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD96" s="31"/>
+      <c r="AE96" s="24"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1735,18 +9770,19 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:W9"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="A1:B7"/>
-    <mergeCell ref="X1:AC7"/>
+    <mergeCell ref="Z1:AE7"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/format/medidasDeProteccion/documents/GeneratedFile.xlsx
+++ b/format/medidasDeProteccion/documents/GeneratedFile.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
-  <si>
-    <t>Periodo Correspondiente: 17-12-2024</t>
-  </si>
-  <si>
-    <t>Consultado: 19-12-2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+  <si>
+    <t>Periodo Correspondiente: 12-2024</t>
+  </si>
+  <si>
+    <t>Consultado: 23-12-2024</t>
   </si>
   <si>
     <t>Información Obtenida del Sistema Integral de Registro Estadístico (SIRE)</t>
@@ -128,30 +128,137 @@
     <t>1003202400051</t>
   </si>
   <si>
+    <t>Violación</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional Morelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO DE PRUEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Femenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mexicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Baja California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ensenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
+  </si>
+  <si>
+    <t>2024-12-23 12:26:47</t>
+  </si>
+  <si>
+    <t>2024-12-23 12:26:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 12:26:00</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Guardia Civil</t>
+  </si>
+  <si>
     <t>Homicidio doloso</t>
   </si>
   <si>
-    <t>Fiscalía Regional Morelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-EJEMPLO DE PRUEBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Femenino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mexicana</t>
+    <t xml:space="preserve">
+Charmander Chiquito Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+27</t>
   </si>
   <si>
     <t xml:space="preserve">
 Desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable
+Vigilancia en el domicilio de la víctima u ofendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-12-23 12:08:46</t>
+  </si>
+  <si>
+    <t>2024-12-23 12:08:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 12:08:00</t>
+  </si>
+  <si>
+    <t>Policía Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MARIA CATALINA CASTRO CORNEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+El reingreso de la víctima u ofendido a su domicilio, una vez que se salvaguarde su seguridad</t>
+  </si>
+  <si>
+    <t>2024-12-23 11:44:42</t>
+  </si>
+  <si>
+    <t>2024-12-18 11:44:00</t>
+  </si>
+  <si>
+    <t>2025-02-16 11:44:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
+  </si>
+  <si>
+    <t>2024-12-23 11:43:59</t>
+  </si>
+  <si>
+    <t>2024-12-23 11:43:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 11:43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Actopan</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -166,14 +273,13 @@
     <t>2024-12-17 16:40:00</t>
   </si>
   <si>
-    <t>2024-12-18 22:40:00</t>
+    <t>2025-02-15 16:40:00</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
   </si>
   <si>
     <t>Homicidio en razon de la preferencia sexual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Masculino</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -185,9 +291,6 @@
 Auxilio inmediato por integrantes de instituciones policiales, al domicilio en donde se localice o se encuentre la víctima u ofendido en el momento de solicitarlo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2024-12-17 12:03:59</t>
   </si>
   <si>
@@ -195,9 +298,6 @@
   </si>
   <si>
     <t>2025-01-16 12:03:00</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Homicidio doloso de persona menor de edad</t>
@@ -219,6 +319,40 @@
   </si>
   <si>
     <t>2025-02-15 11:54:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:11:19</t>
+  </si>
+  <si>
+    <t>2024-12-11 12:10:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 00:10:00</t>
+  </si>
+  <si>
+    <t>Homicidio calificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:06:19</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:04:00</t>
+  </si>
+  <si>
+    <t>2024-12-19 17:06:00</t>
   </si>
 </sst>
 </file>
@@ -948,10 +1082,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,7 +1527,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="14">
-        <v>5186</v>
+        <v>5259</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>35</v>
@@ -1423,54 +1557,54 @@
         <v>43</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="Q11" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="R11" s="29"/>
-      <c r="S11" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29">
-        <v>60</v>
-      </c>
-      <c r="AE11" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="22">
-        <v>5182</v>
+        <v>5258</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>35</v>
@@ -1479,148 +1613,622 @@
         <v>36</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L12" s="30">
         <v>2</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="Q12" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="S12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE12" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
+        <v>5257</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="29">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="22">
+        <v>5256</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="30">
+        <v>2</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="14">
+        <v>5186</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="29">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29">
+        <v>60</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="22">
+        <v>5182</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="30">
+        <v>2</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="14">
         <v>5181</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="29">
+        <v>2</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="22">
+        <v>5013</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="G18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="31">
+      <c r="J18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="30">
         <v>2</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31">
-        <v>60</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="17" t="s">
+      <c r="M18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30">
+        <v>57</v>
+      </c>
+      <c r="AE18" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="15">
+        <v>4993</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="31">
+        <v>2</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AA13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE13" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/format/medidasDeProteccion/documents/GeneratedFile.xlsx
+++ b/format/medidasDeProteccion/documents/GeneratedFile.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Periodo Correspondiente: 12-2024</t>
   </si>
   <si>
-    <t>Consultado: 23-12-2024</t>
+    <t>Consultado: 24-12-2024</t>
   </si>
   <si>
     <t>Información Obtenida del Sistema Integral de Registro Estadístico (SIRE)</t>
@@ -128,26 +128,311 @@
     <t>1003202400051</t>
   </si>
   <si>
+    <t>Homicidio doloso</t>
+  </si>
+  <si>
+    <t>Fiscalía Regional Morelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALMA LIDIA ARROYO OLALDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mexicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Traslado de la víctima u ofendido a refugios o albergues temporales, así como de sus descendientes</t>
+  </si>
+  <si>
+    <t>2024-12-24 10:54:31</t>
+  </si>
+  <si>
+    <t>2024-12-24 10:54:00</t>
+  </si>
+  <si>
+    <t>2025-01-23 10:54:00</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Guardia Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A DADEA DSADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vigilancia en el domicilio de la víctima u ofendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-12-23 20:40:47</t>
+  </si>
+  <si>
+    <t>2024-12-23 20:40:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 20:40:00</t>
+  </si>
+  <si>
+    <t>Homicidio en riña (calificado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ADAS DASDAS DASDASD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre</t>
+  </si>
+  <si>
+    <t>2024-12-23 20:40:13</t>
+  </si>
+  <si>
+    <t>2024-12-23 20:39:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 20:39:00</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ADASDAS DASDA SDASDADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
+  </si>
+  <si>
+    <t>2024-12-23 20:39:30</t>
+  </si>
+  <si>
+    <t>2025-01-22 20:39:00</t>
+  </si>
+  <si>
+    <t>1003202445551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO Charmelon Charizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 mes</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:31:05</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:30:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 14:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Femenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9 meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable
+Vigilancia en el domicilio de la víctima u ofendido</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:23:16</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:22:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 14:22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5 meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Prohibición de acercarse o comunicarse con la víctima u ofendido
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:21:21</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:20:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 14:20:00</t>
+  </si>
+  <si>
+    <t>Policía Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO fdfd Charizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Separación inmediata del domicilio
+La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:18:37</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:18:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 14:18:00</t>
+  </si>
+  <si>
+    <t>Homicidio doloso de persona menor de edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO DE Charizard</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:15:37</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:15:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 14:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Charmander Charmelon Charizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+El reingreso de la víctima u ofendido a su domicilio, una vez que se salvaguarde su seguridad</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:53:23</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:53:00</t>
+  </si>
+  <si>
+    <t>2025-01-22 13:53:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EJEMPLO Charmelon fdf</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:40:21</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:38:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 13:38:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11 meses</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:26:28</t>
+  </si>
+  <si>
+    <t>2024-12-22 13:25:00</t>
+  </si>
+  <si>
+    <t>2025-01-21 13:25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
+Traslado de la víctima u ofendido a refugios o albergues temporales, así como de sus descendientes</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:12:49</t>
+  </si>
+  <si>
+    <t>2024-12-23 13:12:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 13:12:00</t>
+  </si>
+  <si>
+    <t>Homicidio calificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+fdf fdfd fdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8 meses</t>
+  </si>
+  <si>
+    <t>2024-12-23 12:54:54</t>
+  </si>
+  <si>
+    <t>2024-12-23 12:54:00</t>
+  </si>
+  <si>
+    <t>2025-02-21 12:54:00</t>
+  </si>
+  <si>
     <t>Violación</t>
   </si>
   <si>
-    <t>Fiscalía Regional Morelia</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 EJEMPLO DE PRUEBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Femenino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mexicana</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -172,29 +457,12 @@
     <t>2025-01-22 12:26:00</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Guardia Civil</t>
-  </si>
-  <si>
-    <t>Homicidio doloso</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Charmander Chiquito Pérez</t>
   </si>
   <si>
     <t xml:space="preserve">
-Masculino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Desconocido</t>
+27 años</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -202,9 +470,6 @@
 Vigilancia en el domicilio de la víctima u ofendido</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2024-12-23 12:08:46</t>
   </si>
   <si>
@@ -214,20 +479,12 @@
     <t>2025-02-21 12:08:00</t>
   </si>
   <si>
-    <t>Policía Municipal</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 MARIA CATALINA CASTRO CORNEJO</t>
   </si>
   <si>
     <t xml:space="preserve">
-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
-El reingreso de la víctima u ofendido a su domicilio, una vez que se salvaguarde su seguridad</t>
+32 años</t>
   </si>
   <si>
     <t>2024-12-23 11:44:42</t>
@@ -237,11 +494,6 @@
   </si>
   <si>
     <t>2025-02-16 11:44:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre
-La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
   </si>
   <si>
     <t>2024-12-23 11:43:59</t>
@@ -276,14 +528,7 @@
     <t>2025-02-15 16:40:00</t>
   </si>
   <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
     <t>Homicidio en razon de la preferencia sexual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -300,16 +545,8 @@
     <t>2025-01-16 12:03:00</t>
   </si>
   <si>
-    <t>Homicidio doloso de persona menor de edad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Separación inmediata del domicilio
-La entrega inmediata de objetos de uso personal y documentos de identidad de la víctima que tuviera en su posesión el probable responsable</t>
+    <t xml:space="preserve">
+36 años</t>
   </si>
   <si>
     <t>2024-12-17 11:55:52</t>
@@ -322,12 +559,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Prohibición de acercarse o comunicarse con la víctima u ofendido
-Limitación para asistir o acercarse al domicilio de la víctima u ofendido o al lugar donde se encuentre</t>
+7 años</t>
   </si>
   <si>
     <t>2024-12-11 12:11:19</t>
@@ -336,14 +568,11 @@
     <t>2024-12-11 12:10:00</t>
   </si>
   <si>
-    <t>2025-02-21 00:10:00</t>
-  </si>
-  <si>
-    <t>Homicidio calificado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1</t>
+    <t>2025-02-22 02:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 año</t>
   </si>
   <si>
     <t>2024-12-11 11:06:19</t>
@@ -1082,10 +1311,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AD19" sqref="AD19"/>
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,7 +1326,7 @@
     <col min="5" max="5" width="52.5" customWidth="true" style="0"/>
     <col min="6" max="6" width="61.5" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.3" customWidth="true" style="0"/>
-    <col min="8" max="8" width="7.2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.2" customWidth="true" style="0"/>
     <col min="9" max="9" width="16.8" customWidth="true" style="0"/>
     <col min="10" max="10" width="23.7" customWidth="true" style="0"/>
     <col min="11" max="11" width="20.7" customWidth="true" style="0"/>
@@ -1527,7 +1756,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="14">
-        <v>5259</v>
+        <v>5278</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>35</v>
@@ -1557,54 +1786,54 @@
         <v>43</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="29">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="V11" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="W11" s="29"/>
       <c r="X11" s="29">
         <v>30</v>
       </c>
       <c r="Y11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="AB11" s="29"/>
       <c r="AC11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="22">
-        <v>5258</v>
+        <v>5274</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>35</v>
@@ -1613,43 +1842,41 @@
         <v>36</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L12" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="30" t="s">
         <v>32</v>
@@ -1659,31 +1886,31 @@
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="AE12" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="14">
-        <v>5257</v>
+        <v>5273</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>35</v>
@@ -1692,37 +1919,37 @@
         <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L13" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O13" s="29" t="s">
         <v>32</v>
@@ -1734,35 +1961,33 @@
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
-      <c r="W13" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="W13" s="29"/>
       <c r="X13" s="29">
         <v>60</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="29"/>
       <c r="AC13" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD13" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="22">
-        <v>5256</v>
+        <v>5272</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>35</v>
@@ -1771,37 +1996,37 @@
         <v>36</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L14" s="30">
         <v>2</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>32</v>
@@ -1820,67 +2045,67 @@
         <v>30</v>
       </c>
       <c r="Y14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="14">
-        <v>5186</v>
+        <v>5269</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="L15" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O15" s="29" t="s">
         <v>32</v>
@@ -1888,39 +2113,37 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
-      <c r="S15" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="S15" s="29"/>
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29">
-        <v>60</v>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="22">
-        <v>5182</v>
+        <v>5268</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>35</v>
@@ -1929,77 +2152,79 @@
         <v>36</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L16" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="Q16" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="S16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30">
         <v>30</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE16" s="24" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="14">
-        <v>5181</v>
+        <v>5267</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>35</v>
@@ -2008,45 +2233,43 @@
         <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L17" s="29">
         <v>2</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -2057,28 +2280,28 @@
         <v>60</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="22">
-        <v>5013</v>
+        <v>5266</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>35</v>
@@ -2087,43 +2310,45 @@
         <v>36</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L18" s="30">
         <v>2</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
@@ -2131,103 +2356,1201 @@
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="AE18" s="24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
+        <v>5265</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="29">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE19" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="22">
+        <v>5264</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="30">
+        <v>2</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE20" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="14">
+        <v>5263</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="29">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE21" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="22">
+        <v>5262</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="30">
+        <v>2</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE22" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="14">
+        <v>5261</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="29">
+        <v>2</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="22">
+        <v>5260</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="30">
+        <v>2</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE24" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="14">
+        <v>5259</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="29">
+        <v>2</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD25" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE25" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="22">
+        <v>5258</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="30">
+        <v>2</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE26" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="14">
+        <v>5257</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="29">
+        <v>2</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE27" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="22">
+        <v>5256</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="30">
+        <v>2</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA28" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE28" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="14">
+        <v>5186</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="29">
+        <v>3</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29">
+        <v>60</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="22">
+        <v>5182</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="30">
+        <v>2</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA30" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE30" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="14">
+        <v>5181</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="29">
+        <v>2</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE31" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="22">
+        <v>5013</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="30">
+        <v>2</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30">
+        <v>72</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA32" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30">
+        <v>60</v>
+      </c>
+      <c r="AE32" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="15">
         <v>4993</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="F33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="31">
+      <c r="J33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="31">
         <v>2</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31">
+      <c r="M33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31">
         <v>8</v>
       </c>
-      <c r="Y19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA19" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31">
+      <c r="Y33" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z33" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31">
         <v>1</v>
       </c>
-      <c r="AE19" s="21" t="s">
-        <v>61</v>
+      <c r="AE33" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/format/medidasDeProteccion/documents/GeneratedFile.xlsx
+++ b/format/medidasDeProteccion/documents/GeneratedFile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>Periodo Correspondiente: 12-2024</t>
   </si>
@@ -143,15 +143,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-0 años</t>
+Desconocido</t>
   </si>
   <si>
     <t xml:space="preserve">
 Mexicana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Desconocido</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1783,16 +1779,16 @@
         <v>42</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="29">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>32</v>
@@ -1812,23 +1808,23 @@
         <v>30</v>
       </c>
       <c r="Y11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="AB11" s="29"/>
       <c r="AC11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1848,31 +1844,31 @@
         <v>38</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12" s="30">
         <v>1</v>
       </c>
       <c r="M12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>53</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
@@ -1889,23 +1885,23 @@
         <v>30</v>
       </c>
       <c r="Y12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AA12" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="AA12" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE12" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="AE12" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1919,37 +1915,37 @@
         <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13" s="29">
         <v>1</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="29" t="s">
         <v>32</v>
@@ -1966,23 +1962,23 @@
         <v>60</v>
       </c>
       <c r="Y13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="AB13" s="29"/>
       <c r="AC13" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD13" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2002,31 +1998,31 @@
         <v>38</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14" s="30">
         <v>2</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>32</v>
@@ -2045,23 +2041,23 @@
         <v>30</v>
       </c>
       <c r="Y14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2072,40 +2068,40 @@
         <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L15" s="29">
         <v>1</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" s="29" t="s">
         <v>32</v>
@@ -2122,23 +2118,23 @@
         <v>30</v>
       </c>
       <c r="Y15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="AB15" s="29"/>
       <c r="AC15" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD15" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2158,31 +2154,31 @@
         <v>38</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" s="30">
         <v>3</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="30" t="s">
         <v>32</v>
@@ -2203,23 +2199,23 @@
         <v>30</v>
       </c>
       <c r="Y16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="AA16" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE16" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2239,28 +2235,28 @@
         <v>38</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L17" s="29">
         <v>2</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="29" t="s">
         <v>32</v>
@@ -2280,23 +2276,23 @@
         <v>60</v>
       </c>
       <c r="Y17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2316,31 +2312,31 @@
         <v>38</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L18" s="30">
         <v>2</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="30" t="s">
@@ -2359,23 +2355,23 @@
         <v>30</v>
       </c>
       <c r="Y18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z18" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Z18" s="23" t="s">
+      <c r="AA18" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="AA18" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="AB18" s="30"/>
       <c r="AC18" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD18" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE18" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2389,37 +2385,37 @@
         <v>36</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L19" s="29">
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -2436,23 +2432,23 @@
         <v>30</v>
       </c>
       <c r="Y19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE19" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2472,31 +2468,31 @@
         <v>38</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L20" s="30">
         <v>2</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" s="30" t="s">
         <v>32</v>
@@ -2515,23 +2511,23 @@
         <v>30</v>
       </c>
       <c r="Y20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="AA20" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="AA20" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="AB20" s="30"/>
       <c r="AC20" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE20" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="AE20" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2551,31 +2547,31 @@
         <v>38</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L21" s="29">
         <v>2</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" s="29"/>
       <c r="P21" s="29" t="s">
@@ -2594,23 +2590,23 @@
         <v>60</v>
       </c>
       <c r="Y21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="AB21" s="29"/>
       <c r="AC21" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2630,31 +2626,31 @@
         <v>38</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L22" s="30">
         <v>2</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="30"/>
       <c r="P22" s="30" t="s">
@@ -2673,23 +2669,23 @@
         <v>30</v>
       </c>
       <c r="Y22" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="AA22" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="AA22" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE22" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="AE22" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2703,37 +2699,37 @@
         <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L23" s="29">
         <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" s="29" t="s">
         <v>32</v>
@@ -2752,23 +2748,23 @@
         <v>60</v>
       </c>
       <c r="Y23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="AB23" s="29"/>
       <c r="AC23" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD23" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2779,37 +2775,37 @@
         <v>35</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L24" s="30">
         <v>2</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N24" s="30" t="s">
         <v>32</v>
@@ -2829,23 +2825,23 @@
         <v>60</v>
       </c>
       <c r="Y24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="AA24" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="AA24" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE24" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="AE24" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2859,16 +2855,16 @@
         <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="29" t="s">
         <v>41</v>
@@ -2877,16 +2873,16 @@
         <v>42</v>
       </c>
       <c r="J25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="L25" s="29">
         <v>2</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N25" s="29" t="s">
         <v>32</v>
@@ -2906,23 +2902,23 @@
         <v>30</v>
       </c>
       <c r="Y25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z25" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="Z25" s="11" t="s">
+      <c r="AA25" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="AB25" s="29"/>
       <c r="AC25" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE25" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="AE25" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2942,31 +2938,31 @@
         <v>38</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L26" s="30">
         <v>2</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
@@ -2985,23 +2981,23 @@
         <v>60</v>
       </c>
       <c r="Y26" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="AA26" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="AA26" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD26" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE26" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3021,31 +3017,31 @@
         <v>38</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L27" s="29">
         <v>2</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O27" s="29" t="s">
         <v>32</v>
@@ -3064,23 +3060,23 @@
         <v>60</v>
       </c>
       <c r="Y27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="AA27" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD27" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3100,31 +3096,31 @@
         <v>38</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L28" s="30">
         <v>2</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>32</v>
@@ -3143,23 +3139,23 @@
         <v>30</v>
       </c>
       <c r="Y28" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="Z28" s="23" t="s">
+      <c r="AA28" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="AA28" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="AB28" s="30"/>
       <c r="AC28" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD28" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE28" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3179,10 +3175,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="29" t="s">
         <v>41</v>
@@ -3191,16 +3187,16 @@
         <v>42</v>
       </c>
       <c r="J29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="L29" s="29">
         <v>3</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" s="29" t="s">
         <v>32</v>
@@ -3222,13 +3218,13 @@
         <v>60</v>
       </c>
       <c r="Y29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="AA29" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="AB29" s="29" t="s">
         <v>32</v>
@@ -3238,7 +3234,7 @@
         <v>60</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3252,37 +3248,37 @@
         <v>36</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L30" s="30">
         <v>2</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
@@ -3301,23 +3297,23 @@
         <v>30</v>
       </c>
       <c r="Y30" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z30" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Z30" s="23" t="s">
+      <c r="AA30" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="AA30" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="AB30" s="30"/>
       <c r="AC30" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AD30" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3331,37 +3327,37 @@
         <v>36</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L31" s="29">
         <v>2</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="29" t="s">
@@ -3380,23 +3376,23 @@
         <v>60</v>
       </c>
       <c r="Y31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Z31" s="11" t="s">
+      <c r="AA31" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="AB31" s="29"/>
       <c r="AC31" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AD31" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE31" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3416,28 +3412,28 @@
         <v>38</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L32" s="30">
         <v>2</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" s="30" t="s">
         <v>32</v>
@@ -3457,13 +3453,13 @@
         <v>72</v>
       </c>
       <c r="Y32" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z32" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="Z32" s="23" t="s">
+      <c r="AA32" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="AA32" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="AB32" s="30" t="s">
         <v>32</v>
@@ -3473,7 +3469,7 @@
         <v>60</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3487,34 +3483,34 @@
         <v>36</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L33" s="31">
         <v>2</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="31" t="s">
         <v>32</v>
@@ -3534,13 +3530,13 @@
         <v>8</v>
       </c>
       <c r="Y33" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z33" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="AA33" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="AA33" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="AB33" s="31" t="s">
         <v>32</v>
@@ -3550,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="AE33" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
